--- a/files/ESC_data.xlsx
+++ b/files/ESC_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwgi\Documents\Coding stuff\esc_app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F28D9-3674-4528-BA2C-7774EB36854E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9BA3F-3C33-4E02-ACD8-5EE1D96202FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16377,7 +16377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -16434,7 +16434,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16754,9 +16753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT1849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1489" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1489" sqref="I1489"/>
+      <selection pane="bottomLeft" activeCell="B1495" sqref="A1:K1759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16824,7 +16823,7 @@
       <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
@@ -16853,7 +16852,7 @@
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
     </row>
@@ -16882,7 +16881,7 @@
       <c r="H4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
     </row>
@@ -16911,7 +16910,7 @@
       <c r="H5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5"/>
       <c r="J5" s="9"/>
       <c r="K5"/>
     </row>
@@ -16940,7 +16939,7 @@
       <c r="H6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6"/>
       <c r="J6" s="9"/>
       <c r="K6"/>
     </row>
@@ -16969,7 +16968,7 @@
       <c r="H7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7"/>
       <c r="J7" s="9"/>
       <c r="K7"/>
     </row>
@@ -16998,7 +16997,7 @@
       <c r="H8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8"/>
       <c r="J8" s="9"/>
       <c r="K8"/>
     </row>
@@ -17027,7 +17026,7 @@
       <c r="H9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
     </row>
@@ -17056,7 +17055,7 @@
       <c r="H10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="9"/>
     </row>
@@ -17085,7 +17084,7 @@
       <c r="H11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="9"/>
       <c r="R11" s="9"/>
@@ -17115,7 +17114,7 @@
       <c r="H12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12"/>
       <c r="J12"/>
       <c r="K12" s="9"/>
       <c r="R12" s="9"/>
@@ -17145,7 +17144,7 @@
       <c r="H13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
     </row>
@@ -17174,7 +17173,7 @@
       <c r="H14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" s="9"/>
@@ -17205,7 +17204,7 @@
       <c r="H15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" s="9"/>
@@ -20098,7 +20097,7 @@
       <c r="H124" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="I124" s="21"/>
+      <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
@@ -26158,7 +26157,7 @@
       <c r="H357" s="19" t="s">
         <v>1113</v>
       </c>
-      <c r="I357" s="21"/>
+      <c r="I357" s="20"/>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
@@ -43856,7 +43855,7 @@
       <c r="H1037" s="19" t="s">
         <v>3225</v>
       </c>
-      <c r="I1037" s="21"/>
+      <c r="I1037" s="20"/>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1038" s="8" t="s">
@@ -44793,7 +44792,7 @@
       <c r="H1073" s="15" t="s">
         <v>3347</v>
       </c>
-      <c r="I1073" s="20">
+      <c r="I1073">
         <v>0</v>
       </c>
       <c r="J1073">
@@ -44828,7 +44827,7 @@
       <c r="H1074" s="16" t="s">
         <v>3351</v>
       </c>
-      <c r="I1074" s="20">
+      <c r="I1074">
         <v>1</v>
       </c>
       <c r="J1074">
@@ -44863,7 +44862,7 @@
       <c r="H1075" s="16" t="s">
         <v>3354</v>
       </c>
-      <c r="I1075" s="20">
+      <c r="I1075">
         <v>2</v>
       </c>
       <c r="J1075">
@@ -44898,7 +44897,7 @@
       <c r="H1076" s="16" t="s">
         <v>3357</v>
       </c>
-      <c r="I1076" s="20">
+      <c r="I1076">
         <v>3</v>
       </c>
       <c r="J1076">
@@ -44933,7 +44932,7 @@
       <c r="H1077" s="16" t="s">
         <v>3362</v>
       </c>
-      <c r="I1077" s="20">
+      <c r="I1077">
         <v>4</v>
       </c>
       <c r="J1077">
@@ -44968,7 +44967,7 @@
       <c r="H1078" s="16" t="s">
         <v>3365</v>
       </c>
-      <c r="I1078" s="20">
+      <c r="I1078">
         <v>5</v>
       </c>
       <c r="J1078">
@@ -45003,7 +45002,7 @@
       <c r="H1079" s="16" t="s">
         <v>3370</v>
       </c>
-      <c r="I1079" s="20">
+      <c r="I1079">
         <v>6</v>
       </c>
       <c r="J1079">
@@ -45038,7 +45037,7 @@
       <c r="H1080" s="16" t="s">
         <v>3373</v>
       </c>
-      <c r="I1080" s="20">
+      <c r="I1080">
         <v>7</v>
       </c>
       <c r="J1080">
@@ -45073,7 +45072,7 @@
       <c r="H1081" s="16" t="s">
         <v>3376</v>
       </c>
-      <c r="I1081" s="20">
+      <c r="I1081">
         <v>8</v>
       </c>
       <c r="J1081">
@@ -45108,7 +45107,7 @@
       <c r="H1082" s="16" t="s">
         <v>3380</v>
       </c>
-      <c r="I1082" s="20">
+      <c r="I1082">
         <v>9</v>
       </c>
       <c r="J1082">
@@ -45143,7 +45142,7 @@
       <c r="H1083" s="16" t="s">
         <v>3383</v>
       </c>
-      <c r="I1083" s="20">
+      <c r="I1083">
         <v>10</v>
       </c>
       <c r="J1083">
@@ -45178,7 +45177,7 @@
       <c r="H1084" s="16" t="s">
         <v>1042</v>
       </c>
-      <c r="I1084" s="20">
+      <c r="I1084">
         <v>11</v>
       </c>
       <c r="J1084">
@@ -45213,7 +45212,7 @@
       <c r="H1085" s="16" t="s">
         <v>3387</v>
       </c>
-      <c r="I1085" s="20">
+      <c r="I1085">
         <v>12</v>
       </c>
       <c r="J1085">
@@ -45248,7 +45247,7 @@
       <c r="H1086" s="16" t="s">
         <v>3391</v>
       </c>
-      <c r="I1086" s="20">
+      <c r="I1086">
         <v>13</v>
       </c>
       <c r="J1086">
@@ -45283,7 +45282,7 @@
       <c r="H1087" s="16" t="s">
         <v>3394</v>
       </c>
-      <c r="I1087" s="20">
+      <c r="I1087">
         <v>14</v>
       </c>
       <c r="J1087">
@@ -45318,7 +45317,7 @@
       <c r="H1088" s="16" t="s">
         <v>3398</v>
       </c>
-      <c r="I1088" s="20">
+      <c r="I1088">
         <v>15</v>
       </c>
       <c r="J1088">
@@ -45353,7 +45352,7 @@
       <c r="H1089" s="16" t="s">
         <v>3402</v>
       </c>
-      <c r="I1089" s="20">
+      <c r="I1089">
         <v>16</v>
       </c>
       <c r="J1089">
@@ -45388,7 +45387,7 @@
       <c r="H1090" s="16" t="s">
         <v>3405</v>
       </c>
-      <c r="I1090" s="20">
+      <c r="I1090">
         <v>17</v>
       </c>
       <c r="J1090">
@@ -45423,7 +45422,7 @@
       <c r="H1091" s="16" t="s">
         <v>3408</v>
       </c>
-      <c r="I1091" s="20">
+      <c r="I1091">
         <v>18</v>
       </c>
       <c r="J1091">
@@ -45458,7 +45457,7 @@
       <c r="H1092" s="16" t="s">
         <v>3413</v>
       </c>
-      <c r="I1092" s="20">
+      <c r="I1092">
         <v>19</v>
       </c>
       <c r="J1092">
@@ -45493,7 +45492,7 @@
       <c r="H1093" s="16" t="s">
         <v>3417</v>
       </c>
-      <c r="I1093" s="20">
+      <c r="I1093">
         <v>20</v>
       </c>
       <c r="J1093">
@@ -45528,7 +45527,7 @@
       <c r="H1094" s="16" t="s">
         <v>3420</v>
       </c>
-      <c r="I1094" s="20">
+      <c r="I1094">
         <v>21</v>
       </c>
       <c r="J1094">
@@ -45563,7 +45562,7 @@
       <c r="H1095" s="16" t="s">
         <v>3423</v>
       </c>
-      <c r="I1095" s="20">
+      <c r="I1095">
         <v>22</v>
       </c>
       <c r="J1095">
@@ -45598,7 +45597,7 @@
       <c r="H1096" s="16" t="s">
         <v>3426</v>
       </c>
-      <c r="I1096" s="20">
+      <c r="I1096">
         <v>23</v>
       </c>
       <c r="J1096">
@@ -45633,7 +45632,7 @@
       <c r="H1097" s="16" t="s">
         <v>3429</v>
       </c>
-      <c r="I1097" s="20">
+      <c r="I1097">
         <v>24</v>
       </c>
       <c r="J1097">
@@ -45668,7 +45667,7 @@
       <c r="H1098" s="16" t="s">
         <v>3432</v>
       </c>
-      <c r="I1098" s="20">
+      <c r="I1098">
         <v>25</v>
       </c>
       <c r="J1098">
@@ -45703,7 +45702,7 @@
       <c r="H1099" s="16" t="s">
         <v>3435</v>
       </c>
-      <c r="I1099" s="20">
+      <c r="I1099">
         <v>26</v>
       </c>
       <c r="J1099">
@@ -45738,7 +45737,7 @@
       <c r="H1100" s="16" t="s">
         <v>2787</v>
       </c>
-      <c r="I1100" s="20">
+      <c r="I1100">
         <v>27</v>
       </c>
       <c r="J1100">
@@ -45773,7 +45772,7 @@
       <c r="H1101" s="16" t="s">
         <v>3440</v>
       </c>
-      <c r="I1101" s="20">
+      <c r="I1101">
         <v>28</v>
       </c>
       <c r="J1101">
@@ -45808,7 +45807,7 @@
       <c r="H1102" s="16" t="s">
         <v>3444</v>
       </c>
-      <c r="I1102" s="20">
+      <c r="I1102">
         <v>29</v>
       </c>
       <c r="J1102">
@@ -45843,7 +45842,7 @@
       <c r="H1103" s="16" t="s">
         <v>3447</v>
       </c>
-      <c r="I1103" s="20">
+      <c r="I1103">
         <v>30</v>
       </c>
       <c r="J1103">
@@ -45878,7 +45877,7 @@
       <c r="H1104" s="16" t="s">
         <v>3451</v>
       </c>
-      <c r="I1104" s="20">
+      <c r="I1104">
         <v>31</v>
       </c>
       <c r="J1104">
@@ -45913,7 +45912,7 @@
       <c r="H1105" s="16" t="s">
         <v>3455</v>
       </c>
-      <c r="I1105" s="20">
+      <c r="I1105">
         <v>32</v>
       </c>
       <c r="J1105">
@@ -45948,7 +45947,7 @@
       <c r="H1106" s="16" t="s">
         <v>3458</v>
       </c>
-      <c r="I1106" s="20">
+      <c r="I1106">
         <v>33</v>
       </c>
       <c r="J1106">
@@ -45983,7 +45982,7 @@
       <c r="H1107" s="16" t="s">
         <v>3461</v>
       </c>
-      <c r="I1107" s="20">
+      <c r="I1107">
         <v>34</v>
       </c>
       <c r="J1107">
@@ -46018,7 +46017,7 @@
       <c r="H1108" s="16" t="s">
         <v>3464</v>
       </c>
-      <c r="I1108" s="20">
+      <c r="I1108">
         <v>35</v>
       </c>
       <c r="J1108">
@@ -46053,7 +46052,7 @@
       <c r="H1109" s="16" t="s">
         <v>3468</v>
       </c>
-      <c r="I1109" s="20">
+      <c r="I1109">
         <v>36</v>
       </c>
       <c r="J1109">
@@ -46088,7 +46087,7 @@
       <c r="H1110" s="16" t="s">
         <v>3472</v>
       </c>
-      <c r="I1110" s="20">
+      <c r="I1110">
         <v>37</v>
       </c>
       <c r="J1110">
@@ -46123,7 +46122,7 @@
       <c r="H1111" s="16" t="s">
         <v>3475</v>
       </c>
-      <c r="I1111" s="20">
+      <c r="I1111">
         <v>38</v>
       </c>
       <c r="J1111">
@@ -46158,7 +46157,7 @@
       <c r="H1112" s="16" t="s">
         <v>3478</v>
       </c>
-      <c r="I1112" s="20">
+      <c r="I1112">
         <v>39</v>
       </c>
       <c r="J1112">
@@ -46193,7 +46192,7 @@
       <c r="H1113" s="16" t="s">
         <v>3481</v>
       </c>
-      <c r="I1113" s="20">
+      <c r="I1113">
         <v>40</v>
       </c>
       <c r="J1113">
@@ -46228,7 +46227,7 @@
       <c r="H1114" s="16" t="s">
         <v>3484</v>
       </c>
-      <c r="I1114" s="20">
+      <c r="I1114">
         <v>41</v>
       </c>
       <c r="J1114">
@@ -46263,7 +46262,7 @@
       <c r="H1115" s="17" t="s">
         <v>3487</v>
       </c>
-      <c r="I1115" s="20">
+      <c r="I1115">
         <v>42</v>
       </c>
       <c r="J1115">
